--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_359__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_359__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,22 +6118,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>1.401054263114929</c:v>
+                  <c:v>1.401048302650452</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.82719421386719</c:v>
+                  <c:v>93.82718658447266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.62618255615234</c:v>
+                  <c:v>51.62617874145508</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.92831039428711</c:v>
+                  <c:v>10.92832183837891</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>89.21424102783203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.80301666259766</c:v>
+                  <c:v>64.80300903320312</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96.63752746582031</c:v>
@@ -6148,28 +6148,28 @@
                   <c:v>50.82150268554688</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53.89115142822266</c:v>
+                  <c:v>53.89115524291992</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>92.19844818115234</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.75481796264648</c:v>
+                  <c:v>49.75483322143555</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>95.31924438476562</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.818015098571777</c:v>
+                  <c:v>-1.818021059036255</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.056262969970703</c:v>
+                  <c:v>7.056274890899658</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.05586014315485954</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>94.98265838623047</c:v>
+                  <c:v>94.98265075683594</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>50.36905670166016</c:v>
@@ -6178,7 +6178,7 @@
                   <c:v>1.246384978294373</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>94.84130096435547</c:v>
+                  <c:v>94.84129333496094</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>95.31783294677734</c:v>
@@ -6205,31 +6205,31 @@
                   <c:v>-0.1038830503821373</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.22387313842773</c:v>
+                  <c:v>11.22385597229004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50.86676025390625</c:v>
+                  <c:v>50.86676788330078</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.8500489592552185</c:v>
+                  <c:v>-0.8500548601150513</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.57357931137085</c:v>
+                  <c:v>3.573590993881226</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.8524595499038696</c:v>
+                  <c:v>-0.8524653911590576</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.861748993396759</c:v>
+                  <c:v>-0.861754834651947</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>96.44174957275391</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>56.24697875976562</c:v>
+                  <c:v>56.24698257446289</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.050495266914368</c:v>
+                  <c:v>1.05048930644989</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-0.6035494208335876</c:v>
@@ -6256,7 +6256,7 @@
                   <c:v>-1.217270135879517</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1609073132276535</c:v>
+                  <c:v>0.1609014421701431</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>96.35489654541016</c:v>
@@ -6277,10 +6277,10 @@
                   <c:v>73.66653442382812</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.909795761108398</c:v>
+                  <c:v>6.909783840179443</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44.1397705078125</c:v>
+                  <c:v>44.13976669311523</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>78.35529327392578</c:v>
@@ -6289,13 +6289,13 @@
                   <c:v>86.17865753173828</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.513662338256836</c:v>
+                  <c:v>-1.513656377792358</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>52.50304412841797</c:v>
+                  <c:v>52.50304794311523</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>82.69325256347656</c:v>
+                  <c:v>82.6932373046875</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>-0.4740086793899536</c:v>
@@ -6304,10 +6304,10 @@
                   <c:v>-0.385394424200058</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>95.90972900390625</c:v>
+                  <c:v>95.90973663330078</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.555741190910339</c:v>
+                  <c:v>-1.555747032165527</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>91.17710876464844</c:v>
@@ -6322,10 +6322,10 @@
                   <c:v>5.149333953857422</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>78.71720123291016</c:v>
+                  <c:v>78.71720886230469</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>91.68658447265625</c:v>
+                  <c:v>91.68657684326172</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>96.59011077880859</c:v>
@@ -6337,10 +6337,10 @@
                   <c:v>94.50192260742188</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>34.92638397216797</c:v>
+                  <c:v>34.9264030456543</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>96.43336486816406</c:v>
+                  <c:v>96.43335723876953</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>53.95897674560547</c:v>
@@ -6349,7 +6349,7 @@
                   <c:v>95.75852203369141</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>95.97179412841797</c:v>
+                  <c:v>95.9718017578125</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>88.61363983154297</c:v>
@@ -6376,7 +6376,7 @@
                   <c:v>94.92707061767578</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.3489656746387482</c:v>
+                  <c:v>-0.3489715754985809</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0.4207825064659119</c:v>
@@ -6385,25 +6385,25 @@
                   <c:v>-3.051189184188843</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>93.12482452392578</c:v>
+                  <c:v>93.12483215332031</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>96.72765350341797</c:v>
+                  <c:v>96.7276611328125</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>3.783444404602051</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>36.76205444335938</c:v>
+                  <c:v>36.76205825805664</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>93.64344024658203</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.51978874206543</c:v>
+                  <c:v>9.519783020019531</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>57.50592803955078</c:v>
+                  <c:v>57.50593185424805</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>90.75260162353516</c:v>
@@ -6412,7 +6412,7 @@
                   <c:v>94.75619506835938</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.485438346862793</c:v>
+                  <c:v>2.485444307327271</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>93.48026275634766</c:v>
@@ -6421,7 +6421,7 @@
                   <c:v>0.8498961329460144</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>50.82180786132812</c:v>
+                  <c:v>50.82177734375</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>87.33236694335938</c:v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.401054263114929</v>
+        <v>1.401048302650452</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>87.86960000000001</v>
       </c>
       <c r="F3">
-        <v>93.82719421386719</v>
+        <v>93.82718658447266</v>
       </c>
       <c r="G3">
         <v>136</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>51.62618255615234</v>
+        <v>51.62617874145508</v>
       </c>
       <c r="G4">
         <v>136</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10.92831039428711</v>
+        <v>10.92832183837891</v>
       </c>
       <c r="G5">
         <v>136</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>64.80301666259766</v>
+        <v>64.80300903320312</v>
       </c>
       <c r="G7">
         <v>136</v>
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>53.89115142822266</v>
+        <v>53.89115524291992</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.75481796264648</v>
+        <v>49.75483322143555</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>-1.818015098571777</v>
+        <v>-1.818021059036255</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>7.056262969970703</v>
+        <v>7.056274890899658</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>95.9807</v>
       </c>
       <c r="F19">
-        <v>94.98265838623047</v>
+        <v>94.98265075683594</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>91.50530000000001</v>
       </c>
       <c r="F22">
-        <v>94.84130096435547</v>
+        <v>94.84129333496094</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>11.22387313842773</v>
+        <v>11.22385597229004</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>50.86676025390625</v>
+        <v>50.86676788330078</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-0.8500489592552185</v>
+        <v>-0.8500548601150513</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>3.57357931137085</v>
+        <v>3.573590993881226</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.8524595499038696</v>
+        <v>-0.8524653911590576</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.861748993396759</v>
+        <v>-0.861754834651947</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>56.24697875976562</v>
+        <v>56.24698257446289</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.050495266914368</v>
+        <v>1.05048930644989</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.1609073132276535</v>
+        <v>0.1609014421701431</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>6.909795761108398</v>
+        <v>6.909783840179443</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>44.1397705078125</v>
+        <v>44.13976669311523</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-1.513662338256836</v>
+        <v>-1.513656377792358</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>52.50304412841797</v>
+        <v>52.50304794311523</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>82.69325256347656</v>
+        <v>82.6932373046875</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>97.37220000000001</v>
       </c>
       <c r="F64">
-        <v>95.90972900390625</v>
+        <v>95.90973663330078</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>-1.555741190910339</v>
+        <v>-1.555747032165527</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>78.71720123291016</v>
+        <v>78.71720886230469</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>94.7551</v>
       </c>
       <c r="F71">
-        <v>91.68658447265625</v>
+        <v>91.68657684326172</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>34.92638397216797</v>
+        <v>34.9264030456543</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>96.0843</v>
       </c>
       <c r="F76">
-        <v>96.43336486816406</v>
+        <v>96.43335723876953</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>94.49079999999999</v>
       </c>
       <c r="F79">
-        <v>95.97179412841797</v>
+        <v>95.9718017578125</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-0.3489656746387482</v>
+        <v>-0.3489715754985809</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>91.271</v>
       </c>
       <c r="F91">
-        <v>93.12482452392578</v>
+        <v>93.12483215332031</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>95.6799</v>
       </c>
       <c r="F92">
-        <v>96.72765350341797</v>
+        <v>96.7276611328125</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>36.76205444335938</v>
+        <v>36.76205825805664</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>77.41670000000001</v>
       </c>
       <c r="F96">
-        <v>9.51978874206543</v>
+        <v>9.519783020019531</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>57.50592803955078</v>
+        <v>57.50593185424805</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>2.485438346862793</v>
+        <v>2.485444307327271</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>50.82180786132812</v>
+        <v>50.82177734375</v>
       </c>
     </row>
     <row r="104" spans="1:6">
